--- a/Pandas_Library/pandas_01_day6.xlsx
+++ b/Pandas_Library/pandas_01_day6.xlsx
@@ -587,7 +587,7 @@
         <v>5.7</v>
       </c>
       <c r="B15" s="5">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>5</v>
